--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_abréviations_d'auteur_en_taxinomie_végétale/Liste_des_abréviations_d'auteur_en_taxinomie_végétale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_abréviations_d'auteur_en_taxinomie_végétale/Liste_des_abréviations_d'auteur_en_taxinomie_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste ne doit pas être modifiée.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -679,7 +693,7 @@
 Alb. - Johannes Baptista von Albertini (1769-1831)
 Albov - Nikolaï Mikhaïlovitch Albov (1866-1897)
 Alderw. - Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh (1863-1936)
-Aldrovandi - Ulisse Aldrovandi[1] (1522-1605)
+Aldrovandi - Ulisse Aldrovandi (1522-1605)
 Alef. - Friedrich Alefeld (1820-1872)
 Alessio - Carlo Luciano Alessio (1919-2006)
 Alexop. - Constantine John Alexopoulos (1907-1986)
@@ -689,12 +703,12 @@
 Allem - Antonio Costa Allem (1949-…)
 Allemão - Francisco Freire Allemão (1797-1874)
 Alph.Wood - Alphonso Wood (1810-1881)
-Alpino - Prospero Alpini[1] (1553-1617)
+Alpino - Prospero Alpini (1553-1617)
 Alston - Arthur Hugh Garfit Alston (1902-1958)
 Ambrosi - Francesco Ambrosi (1821-1897)
 Ameka - Gabriel Ameka (1958-…)
 Amici - Giovanni Battista Amici (1786-1863)
-Amman - Johann Amman[1] (1707-1741)
+Amman - Johann Amman (1707-1741)
 Amo - Mariano del Amo y Mora (1809-1896)
 Ander. - Johann Anderson (1674-1743)
 Anderb. - Arne Anderberg (1954-…)
@@ -738,7 +752,7 @@
 Ast - Suzanne Jovet-Ast (1914-2006)
 Aubl. - Jean Baptiste Christian Fusée-Aublet (1720-1778)
 Aubrév. - André Aubréville (1897-1982)
-Aubriet - Claude Aubriet[1] (1651-1742)
+Aubriet - Claude Aubriet (1651-1742)
 Aubry-Lecomte - Charles Eugène Aubry-Lecomte (1821-1898)
 Aucher - Rémi Aucher-Éloy (1792-1838)
 auct. - Auteurs. Indique que le nom a été utilisé par plusieurs auteurs sans qu'aucun ne fasse autorité pour le sens donné au nom. N'est donc jamais le descripteur final d'un taxon valide.
@@ -764,7 +778,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -782,7 +796,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -871,7 +887,7 @@
 Baltet - Charles Baltet (1830-1908)
 Bañares - Ángel Bañares Baudet (1954-…)
 Bancr. - Edward Nathaniel Bancroft (1772-1842)
-Banister - John Banister[1] (1650-1692)
+Banister - John Banister (1650-1692)
 Banks - Joseph Banks (1743-1820)
 Barb.Rodr. - João Barbosa Rodrigues (1842-1909)
 Barbey - William Barbey (1842-1914)
@@ -885,8 +901,8 @@
 Barrandon - Auguste Barrandon (1814-1897)
 Barratt - Joseph Barratt (1796-1882)
 Barratte - Gustave Barratte (1857-1920)
-Barrel. - Jacques Barrelier[1] (1606-1673)
-Barrère - Pierre Barrère[1] (1690-1755)
+Barrel. - Jacques Barrelier (1606-1673)
+Barrère - Pierre Barrère (1690-1755)
 Barros - Manuel Barros (1880-1973)
 Barrow - John Barrow (1764-1848) (1764-1848)
 Bartal. - Biagio Bartalini (1746-1822)
@@ -970,7 +986,7 @@
 Bertoni - Moisés Santiago Bertoni (1857-1929)
 Bérubé - Jean A. Bérubé (fl. 1988)
 Besch. - Émile Bescherelle (1828-1903)
-Besler - Basilius Besler[1] (1561-1629)
+Besler - Basilius Besler (1561-1629)
 Besser - Wilibald Swibert Joseph Gottlieb von Besser (1784-1842)
 Bessey - Charles Edwin Bessey (1845-1915)
 Betche - Ernst Betche (1851-1913)
@@ -1009,11 +1025,11 @@
 Bluff - Mathias Joseph Bluff (1805-1837)
 Blume - Carl Ludwig Blume (1796-1862)
 Blytt - Matthias Numsen Blytt (1789-1862)
-Boccone - Paolo Silvio Boccone[1] (1633-1704)
+Boccone - Paolo Silvio Boccone (1633-1704)
 Böcher - Tyge Wittrock Böcher (1909-1983)
 Boeckeler - Johann Otto Boeckeler (1803-1899)
 Boehm. - Georg Rudolf Boehmer (1723-1803)
-Boerh. - Herman Boerhaave[1] (1668-1739)
+Boerh. - Herman Boerhaave (1668-1739)
 Boerl. - Jacob Gijsbert Boerlage (1849-1900)
 Boidin - Jacques Boidin (1893-?)
 Boira - Herminio Boira (1943-…)
@@ -1089,7 +1105,7 @@
 Braarud - Trygve Braarud (1903-1985)
 Brack. - William Dunlop Brackenridge (1810-1893)
 Brade - Alexander Curt Brade (1881-1971)
-Bradley - Richard Bradley (botaniste)[1] (1688-1732)
+Bradley - Richard Bradley (botaniste) (1688-1732)
 Brady - Henry Bowman Brady (1835-1891)
 Bramwell - David Bramwell (1942-…)
 Brandegee - Townshend Stith Brandegee (1843-1925)
@@ -1130,7 +1146,7 @@
 Brug. - Jean-Guillaume Bruguière (1750-1798)
 Brummitt - Richard Kenneth Brummitt (1937-2013)
 Brunet - Louis-Ovide Brunet (1826-1876)
-Brunfels - Otto Brunfels[1] (1488-1534)
+Brunfels - Otto Brunfels (1488-1534)
 Brunner - Karl Brunner von Wattenwyl (1823-1914)
 Brygoo - Édouard-Raoul Brygoo (1920-2016)
 Bryson - Charles Bryson (1950-…)
@@ -1188,7 +1204,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1206,7 +1222,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1243,20 +1261,20 @@
 C.A.Sm. - Christo Albertyn Smith (1898-1956)
 C.Abbot - Charles Abbot (botaniste) (1761-1817)
 C.Abel - Clarke Abel (1789-1826)
-C.Acosta - Cristobal Acosta[1] (1515-1594)
+C.Acosta - Cristobal Acosta (1515-1594)
 C.Agardh - Carl Adolph Agardh (1785-1859)
 C.Archer - Clare Archer (fl. 1996)
 C.B.Clarke - Charles Baron Clarke (1832-1906)
 C.B.Niel - Cornelis B. Van Niel (1897-1985)
 C.B.Rob. - Charles Budd Robinson (1871-1913)
 C.Bab. - Churchill Babington (1821-1889)
-C.Bauhin - Gaspard Bauhin[1] (1560-1624)
+C.Bauhin - Gaspard Bauhin (1560-1624)
 C.Bicknell - Clarence Bicknell (1842-1918)
 C.C.Berg - Cornelis Christiaan Berg (1934-2012)
 C.C.Gmel. - Carl Christian Gmelin (1762-1837)
 C.Chatel. - Cyrille Chatelain (1963-…)
 C.Chr. - Carl Frederik Albert Christensen (1872-1942)
-C.Commelijn - Caspar Commelijn[1] (1667/8-1731)
+C.Commelijn - Caspar Commelijn (1667/8-1731)
 C.Cordem. - Camille Jacob de Cordemoy (1840-1909)
 C.D.Adams - Charles Dennis Adams (1920-2005)
 C.D.Bacon - Christine D. Bacon (fl. 2011)
@@ -1362,7 +1380,7 @@
 Castagne - Jean Louis Martin Castagne (1785-1858)
 Castelnau - Francis de Laporte de Castelnau (1810-1880)
 Castrov. - Santiago Castroviejo Bolibar (1946-2009)
-Catesby - Mark Catesby[1] (1683-1749)
+Catesby - Mark Catesby (1683-1749)
 Catling - Paul Miles Catling (1947-…)
 Caullery - Maurice Caullery (1868-1958)
 Cav. - Antonio José Cavanilles (1745-1804)
@@ -1373,10 +1391,10 @@
 Celsius - Olof Celsius (1670-1756)
 Cerv. - Vicente Cervantes (1755-1829)
 Ces. - Vincenzo de Cesati (1806-1883)
-Cesalpino - Andrea Cesalpino[1] (1519-1603)
-Cestoni - Giacinto Cestoni[1] (1637-1718)
+Cesalpino - Andrea Cesalpino (1519-1603)
+Cestoni - Giacinto Cestoni (1637-1718)
 Chabaud - Justin-Benjamin Chabaud (1833-1915)
-Chabrey - Dominique Chabrey[1] (1610-1669)
+Chabrey - Dominique Chabrey (1610-1669)
 Chadef. - Marius Chadefaud (1900-1984)
 Chagas - Carlos Chagas (1879-1934)
 Chaix - Dominique Chaix (1730-1799)
@@ -1400,7 +1418,7 @@
 Cheel - Edwin Cheel (1872-1951)
 Cheeseman - Thomas Frederic Cheeseman (1846-1923)
 Cheesman - Ernest Entwistle Cheesman (1898-1983)
-Cherler - Johann Heinrich Cherler[1] (1570-1610)
+Cherler - Johann Heinrich Cherler (1570-1610)
 Cherm. - Henri Chermezon (1885-1939)
 Chevall. - François Fulgis Chevallier (1796-1840)
 Chevassut - Georges Chevassut (1923-2003)
@@ -1440,7 +1458,7 @@
 Clokey - Ira Waddell Clokey (1878-1950)
 Cloquet - Hippolyte Cloquet (fl. 1822)
 Clos - Dominique Clos (1821-1908)
-Clus. - Charles de L'Écluse[1] (1525-1609)
+Clus. - Charles de L'Écluse (1525-1609)
 Cobb - Nathan Augustus Cobb (1859-1932)
 Cockayne - Leonard Cockayne (1855-1934)
 Cockerell - Theodore Dru Alison Cockerell (1866-1948)
@@ -1484,7 +1502,7 @@
 Corliss - John Ozro Corliss (1922-2014)
 Corner - Edred John Henry Corner (1906-1996)
 Cornu - Maxime Cornu (1843-1901)
-Cornut - Jacques Philippe Cornut[1] (1606-1651)
+Cornut - Jacques Philippe Cornut (1606-1651)
 Correa - José Francisco Corrêa da Serra (1751-1823)
 Correll - Donovan Stewart Correll (1908-1983)
 Correns - Carl Correns (1864-1933)
@@ -1530,7 +1548,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1548,7 +1566,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1628,7 +1648,7 @@
 Daday - Eugen von Daday (?-?)
 Dahl - Anders Dahl (1751-1789)
 Dahlst. - Hugo Dahlstedt (1856-1934)
-Daléchamps - Jacques Daléchamps[1] (1513-1588)
+Daléchamps - Jacques Daléchamps (1513-1588)
 Dalla Torre - Karl Wilhelm von Dalla Torre (1850-1928)
 Dallim. - William Dallimore (1871-1959)
 Dalpé - Yolande Dalpé (1948-…)
@@ -1636,7 +1656,7 @@
 Dalzell - Nicol Alexander Dalzell (1817-1878)
 Dalziel - John McEwan Dalziel (1872-1948)
 Damboldt - Jürgen Damboldt (1937-1978)
-Dampier - William Dampier[1] (1652-1715)
+Dampier - William Dampier (1652-1715)
 Dana - James Dwight Dana (1813-1895)
 Dandy - James Edgar Dandy (1903-1976)
 Danguy - Paul Auguste Danguy (1862-1942)
@@ -1718,7 +1738,7 @@
 Diels - Ludwig Diels (1874-1945)
 Diesing - Karl Moritz Diesing (1800-1867)
 Dijk - D. Eduard Van Dijk (?-?)
-Dill. - Johann Jacob Dillenius[1] (1684-1747)
+Dill. - Johann Jacob Dillenius (1684-1747)
 Dillon - Lawrence Samuel Dillon (1910-1999)
 Dillwyn - Lewis Weston Dillwyn (1778-1855)
 Ding Hou - Ding Hou (1921-2008)
@@ -1727,7 +1747,7 @@
 Dioli - Maurizio Dioli (fl. 2000)
 Dod - Donald Dungan Dod (1912-2008)
 Dode - Louis-Albert Dode (1875-1945)
-Dodoens - Rembert Dodoens[1] (1518-1585)
+Dodoens - Rembert Dodoens (1518-1585)
 Dodson - Calaway Dodson (1928-…)
 Doebley - John F. Doebley (fl. 1980)
 Doflein - Franz Doflein (1873-1925)
@@ -1816,7 +1836,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1834,7 +1854,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1876,7 +1898,7 @@
 E.B.Knox - Eric B. Knox (fl. 1993)
 E.Britton - Elizabeth Britton (1858-1934)
 E.C.Hansen - Emil Christian Hansen (1842-1909)
-E.Cordus - Euricius Cordus[1] (1486-1535)
+E.Cordus - Euricius Cordus (1486-1535)
 E.D.Clarke - Edward Daniel Clarke (1769-1822)
 E.D.M.Kirchn. - Ernst Daniel Martin Kirchner (fl. 1831)
 É.Desv. - Émile Desvaux (1830-1854)
@@ -1996,7 +2018,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2014,7 +2036,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2061,7 +2085,7 @@
 F.H.Wigg. - Fridrich Hinrich Wiggers (1746-1811)
 F.Hallé - Francis Hallé (1938-…)
 F.Harper - Francis Harper (1886-1972)
-F.Hern. - Francisco Hernández[1] (1514-1587)
+F.Hern. - Francisco Hernández (1514-1587)
 F.J.Herm. - Frederick Joseph Hermann (1906-1987)
 F.J.Müll. - Fritz Müller (biologiste) (1822-1897)
 F.L.Bauer - Ferdinand Bauer (1760-1826)
@@ -2100,7 +2124,7 @@
 Facchini - Francesco Angelo Facchini (1788-1852)
 Faegri - Knut Fægri (1909-2001)
 Fage - Louis Fage (1883-1964)
-Fagon - Guy-Crescent Fagon[1] (1638-1718)
+Fagon - Guy-Crescent Fagon (1638-1718)
 Falanruw - Marjorie Falanruw (1943-…)
 Falc. - Hugh Falconer (1808-1865)
 Falck - Richard Falck (1868-1955)
@@ -2136,7 +2160,7 @@
 Ferreira - Alexandre Rodrigues Ferreira (1756-1815)
 Ferry - René Joseph Justin Ferry (1845-1924)
 Férussac - André Étienne Justin Pascal Joseph François d'Audebert de Férussac (1786-1836)
-Feuillée - Louis Feuillée[1] (1660-1732)
+Feuillée - Louis Feuillée (1660-1732)
 Fiala - Franz Fiala (de) (1861-1898)
 Fieber - Franz Xaver Fieber (1807-1872)
 Figlar - Richard B. Figlar (fl. 2000)
@@ -2171,7 +2195,7 @@
 Fors.-Major - Charles Immanuel Forsyth Major (1843-1923)
 Forssk. - Pehr Forsskål (1732-1763)
 Forsyth - William Forsyth (1737-1804)
-Forsyth f. - William Forsyth, Jn. (?1772-1835)[1]
+Forsyth f. - William Forsyth, Jn. (?1772-1835)
 Forti - Achille Italo Forti (1878-1937)
 Fortune - Robert Fortune (botaniste) (1812-1880)
 Fosberg - Francis Raymond Fosberg (1908-1993)
@@ -2223,7 +2247,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2241,7 +2265,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2345,7 +2371,7 @@
 Gams - Helmut Gams (1893-1976)
 Gand. - Michel Gandoger (1850-1926)
 Garay - Leslie Andrew Garay (1924-…)
-Garcia de Orta - Garcia de Orta[1] (fl. 1490-1570)
+Garcia de Orta - Garcia de Orta (fl. 1490-1570)
 García-Mend. - Abisai Josue García-Mendoza (1955-…)
 Garcke - Christian August Friedrich Garcke (1819-1904)
 Garden - Alexander Garden (1730-1792)
@@ -2377,7 +2403,7 @@
 Germ. - Jacques Nicolas Ernest Germain de Saint-Pierre (1815-1882)
 Germar - Ernst Friedrich Germar (1786-1853)
 Gerold - Raymond Gerold (fl. 1994)
-Gesner - Conrad Gessner[1] (1516-1565)
+Gesner - Conrad Gessner (1516-1565)
 Gessner - Johannes Gessner (1709-1790)
 Gestro - Raffaello Gestro (1845-1936)
 Getliffe - Fiona Mary Getliffe (1941-…)
@@ -2385,7 +2411,7 @@
 Geyl. - Hermann Theodor Geyler (1834-1889)
 Ghafoor - Abdul Ghafoor (1938-…)
 Ghiesbr. - Auguste Boniface Ghiesbreght (1810-1893)
-Ghini - Luca Ghini[1] (1490-1556)
+Ghini - Luca Ghini (1490-1556)
 Giard - Alfred Giard (1846-1908)
 Gibbes - Lewis Reeve Gibbes (1810-1894)
 Gibbs - Lilian Suzette Gibbs (1870-1925)
@@ -2504,7 +2530,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2522,7 +2548,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2554,7 +2582,7 @@
 H.B.Guppy - Henry Brougham Guppy (1854-1926)
 H.B.Ward - Henry Baldwin Ward (en) (1865-1945)
 H.Baumann - Helmut Baumann (de) (1937-2014)
-H.Bock - Jérôme Bock[1] (1498-1554)
+H.Bock - Jérôme Bock (1498-1554)
 H.Bruggen - Heinrich Wilhelm Eduard van Bruggen (en) (1927-…)
 H.C.Bold - Harold Charles Bold (1909-1987)
 H.C.Watson - Hewett Cottrell Watson (1804-1881)
@@ -2710,7 +2738,7 @@
 Herborg - Joachim Herborg (fl. 1987)
 Hérincq - François Hérincq (1820-1891)
 Herink - Josef Herink (1915-1999)
-Herm. - Paul Hermann (botaniste)[1] (1646-1695)
+Herm. - Paul Hermann (botaniste) (1646-1695)
 Herr.-Schaeff. - Gottlieb August Wilhelm Herrich-Schäffer (1799-1874)
 Herre - Albert William Christian Theodore Herre (1868-1962)
 Herrero - Alberto Herrero (fl. 1995)
@@ -2828,7 +2856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2846,7 +2874,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2897,7 +2927,7 @@
 Irmsch. - Edgar Irmscher (1887-1968)
 Isab. - Arsène Isabelle (1807-1888)
 Isert - Paul Erdmann Isert (1756-1789)
-Isnard - Antoine-Tristan Danty d'Isnard[1] (1663-1743)
+Isnard - Antoine-Tristan Danty d'Isnard (1663-1743)
 Issel - Raffaele Issel (1878-1936)
 Issler - Émile Issler (1872-1952)
 Ito - Itō Keisuke (1803-1901)
@@ -2912,7 +2942,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2930,7 +2960,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -2970,11 +3002,11 @@
 J.Agardh - Jakob Georg Agardh (1813-1901)
 J.B.Fisch. - Johann Baptist Fischer (1803-1832)
 J.B.Imlay - Joan B. Imlay (fl. 1939)
-J.Bauhin - Jean Bauhin[1] (1541-1613)
+J.Bauhin - Jean Bauhin (1541-1613)
 J.Bommer - Joseph Édouard Bommer (1829-1895)
 J.Bradbury - John Bradbury (botaniste) (1768-1823)
 J.Buchholz - John Theodore Buchholz (1888-1951)
-J.C.Buxb. - Johann Christian Buxbaum[1] (1693-1730)
+J.C.Buxb. - Johann Christian Buxbaum (1693-1730)
 J.C.David - John Charles David (1964-…)
 J.C.Manning - John C. Manning (fl. 1985)
 J.C.Mikan - Johann Christian Mikan (1769-1844)
@@ -2983,7 +3015,7 @@
 J.C.Walker - John Charles Walker (1893-1994)
 J.C.Wendl. - Johann Christoph Wendland (1755-1828)
 J.Clayton - John Clayton (botaniste) (1686-1773)
-J.Commelijn - Jan Commelijn[1] (1629-1692)
+J.Commelijn - Jan Commelijn (1629-1692)
 J.D.Freeman - John Daniel Freeman (1941-1997)
 J.D.Grierson - James D. Grierson (1931-1991)
 J.Dransf. - John Dransfield (1945-…)
@@ -3014,7 +3046,7 @@
 J.Garden - Joy Garden (1923-…)
 J.Garden bis - Jean-Joseph Garden (fl. 1887)
 J.Gay - Jacques Étienne Gay (1786-1864)
-J.Gerard - John Gerard[1] (1545-1612)
+J.Gerard - John Gerard (1545-1612)
 J.Gillet - Justin Gillet (1866-1943)
 J.Groves - James Groves (1858-1933)
 J.H.Kirkbr. - Joseph Harold Kirkbride (1943-…)
@@ -3028,7 +3060,7 @@
 J.Houz. - Jean Houzeau de Lehaie (1867-1959)
 J.J.de Wilde - Jan Jacobus Friedrich Egmond de Wilde (1932-…)
 J.J.Kickx - Jean Jacques Kickx (1842-1887)
-J.J.Scheuchzer - Johann Jakob Scheuchzer[1] (1672-1733)
+J.J.Scheuchzer - Johann Jakob Scheuchzer (1672-1733)
 J.J.Sm. - Johannes Jacobus Smith (1867-1947)
 J.Jacq. - Joseph Franz von Jacquin (1766-1839)
 J.Juss. - Joseph de Jussieu (1704-1779)
@@ -3072,7 +3104,7 @@
 J.Raynal - Jean Raynal (1933-1979)
 J.Rémy - Jules Rémy (1826-1893)
 J.Rev. - Julien Reverchon (1837-1905)
-J.Robin - Jean Robin (botaniste)[1] (1550-1629)
+J.Robin - Jean Robin (botaniste) (1550-1629)
 J.Rothman - Johan Stensson Rothman (1684-1763)
 J.Rousseau - Jacques Rousseau (botaniste) (1905-1970)
 J.Roux - Jean Roux (1876-1939)
@@ -3141,12 +3173,12 @@
 Jess. - Karl Friedrich Wilhelm Jessen (1821-1889)
 Jn.Dalton - John Dalton (1766-1844)
 Joffe - Abraham Joffe (1909-2000)
-John Parkinson - John Parkinson[1] (1567-1650)
+John Parkinson - John Parkinson (1567-1650)
 Johnst. - George Johnston (1797-1855)
 Joly - Nicolas Joly (1812-1885)
 Jolycl. - Nicolas Marie Thérèse Jolyclerc (1746-1817)
 Jones - William Jones (linguiste) (1746-1794)
-Jonst. - Jan Jonston[1] (1603-1675)
+Jonst. - Jan Jonston (1603-1675)
 Jord. - Alexis Jordan (1814-1897)
 Jord.Puyf. - Eugène Jordan de Puyfol (1819-1891)
 Jordaan - Marie Jordaan (1948-…)
@@ -3159,7 +3191,7 @@
 Jul.Schäff. - Julius Schäffer (1882-1944)
 Jülich - Walter Jülich (1942-…)
 Jum. - Henri Lucien Jumelle (1866-1935)
-Jung - Joachim Jung[1] (1587-1657)
+Jung - Joachim Jung (1587-1657)
 Jungh. - Franz Wilhelm Junghuhn (1809-1864)
 Jungner - Johan Richard Jungner (1858-1929)
 Juss. - Antoine-Laurent de Jussieu (1748-1836)
@@ -3174,7 +3206,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3192,7 +3224,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3252,13 +3286,13 @@
 K.Wilh. - Karl Wilhelm (botaniste) (1848-1933)
 K.Y.Guan - Kai Yun Guan (fl. 1993)
 Kablík. - Josephine Kablick (1787-1863)
-Kaempf. - Engelbert Kaempfer[1] (1651-1716)
+Kaempf. - Engelbert Kaempfer (1651-1716)
 Kalela - Aimo Aarno Antero Kalela (sv) (1908-1977)
 Kalkman - Cornelis Kalkman (1928-1998)
 Källersjö - Mari Källersjö (es) (1954-…)
 Kalm - Pehr Kalm (1716-1779)
 Kaltenb. - Johann Heinrich Kaltenbach (1807-1876)
-Kamel - Jiří Josef Camel[1] (1661-1706)
+Kamel - Jiří Josef Camel (1661-1706)
 Kamelin - Rudolph Kaméline (1938-…)
 Kämmer - Franco Kämmer (es) (1945-…)
 Kaneh. - Ryōzō Kanehira (en) (1882-1948)
@@ -3290,7 +3324,7 @@
 Khawkine - Waldemar Haffkine (1860-1930)
 Kieff. - Jean-Jacques Kieffer (1857-1925)
 Kiew - Ruth Kiew (1946-…)
-Kiggel. - Franz Kiggelaer[1] (1648-1722)
+Kiggel. - Franz Kiggelaer (1648-1722)
 Killick - Donald Joseph Boomer Killick (1926-…)
 Kimnach - Myron William Kimnach (es) (1922-2018)
 Kindt - Christian Sommer Kindt (en) (1816-1903)
@@ -3311,8 +3345,8 @@
 Klotzsch - Johann Friedrich Klotzsch (1805-1860)
 Klugh - Alfred Brooker Klugh (1882-1932)
 Kluk - Jan Krzysztof Kluk (1739-1796)
-Knaut - Christian Knauth[1] (1654-1716)
-Knauth - Christoph Knauth[1] (1638-1694)
+Knaut - Christian Knauth (1654-1716)
+Knauth - Christoph Knauth (1638-1694)
 Kneuck. - Johann Andreas Kneucker (1862-1946)
 Kniep - Hans Kniep (1881-1930)
 Knight - Joseph Knight (1777?-1855)
@@ -3399,7 +3433,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3417,7 +3451,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3464,7 +3500,7 @@
 L.E.Skog - Laurence Skog (1943-…)
 L.f. - Carl von Linné le Jeune (1741-1783)
 L.F.Hend. - Louis Forniquet Henderson (1853-1942)
-L.Fuchs - Leonhart Fuchs[1] (1501-1566)
+L.Fuchs - Leonhart Fuchs (1501-1566)
 L.G.Clark - Lynn G. Clark (1956-…)
 L.Graves - Louis Graves (1791-1857)
 L.Gross - Ludwig Gross (botaniste) (1860-?)
@@ -3482,7 +3518,7 @@
 L.M.A.Robill. - Louis Marc Antoine Robillard d'Argentelle (1777-1828)
 L.M.Dufour - Léon Marie Dufour (1862-1942)
 L.M.Perry - Lily May Perry (1895-1992)
-L.Marsili - Luigi Ferdinando Marsigli[1] (1656-1730)
+L.Marsili - Luigi Ferdinando Marsigli (1656-1730)
 L.Mend. - Leonel Mendoza (fl. 1987)
 L.O.Williams - Louis Otho Williams (1908-1991)
 L.Saéz - Llorenç Saéz (1965-…)
@@ -3620,7 +3656,7 @@
 Litard. - René Verriet de Litardière (1888-1957)
 Litv. - Dmitri Litvinov (1854-1929)
 Lloyd - Curtis Gates Lloyd (1859-1926)
-Lobel - Mathias de l'Obel[1] (1538-1616)
+Lobel - Mathias de l'Obel (1538-1616)
 Lockh. - David Lockhart (?-1845)
 Locq. - Marcel Locquin (1922-…)
 Lodd. - Conrad Loddiges (1738-1826)
@@ -3628,10 +3664,10 @@
 Loefgr. - Albert Löfgren (1854-1919)
 Loefl. - Pehr Löfling (1729-1756)
 Loes. - Ludwig Eduard Theodor Loesener (1865-1941)
-Loesel - Johannes Loesel[1] (1607-1655)
+Loesel - Johannes Loesel (1607-1655)
 Loisel. - Jean-Louis-Auguste Loiseleur-Deslongchamps (1774-1849)
 Lojac. - Michele Lojacono-Pojero (1853-1919)
-Lonitzer - Adam Lonitzer[1] (1528-1586)
+Lonitzer - Adam Lonitzer (1528-1586)
 Lönnrot - Elias Lönnrot (1802-1884)
 Looser - Gualterio Looser (1898-1982)
 Lorence - David Lorence (1946-…)
@@ -3678,7 +3714,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3696,7 +3732,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -3788,7 +3826,7 @@
 Macquart - Pierre Justin Marie Macquart (1778-1855)
 Maggs - Christine Maggs (1956-…)
 Magnin - Antoine Magnin (1848-1926)
-Magnol - Pierre Magnol[1] (1638-1715)
+Magnol - Pierre Magnol (1638-1715)
 Maguire - Bassett Maguire (1904-1991)
 Maiden - Joseph Henry Maiden (1859-1925)
 Mains - Edwin Butterworth Mains (1890-1968)
@@ -3812,9 +3850,9 @@
 Mantell - Gideon Mantell (1790-1852)
 Manton - Irene Manton (1904-1988)
 Marais - Wessel Marais (1929-2013)
-Maranta - Bartolomeo Maranta[1] (v. 1500-1571)
+Maranta - Bartolomeo Maranta (v. 1500-1571)
 Marc.-Berti - Luis Marcano-Berti (fl. 1967)
-Marcgr. - Georg Markgraf[1] (1610-1644)
+Marcgr. - Georg Markgraf (1610-1644)
 Maréchal - Robert Joseph Jean-Marie Maréchal (1926-…)
 Maresq. - Henri Jean Maresquelle (1898-1977)
 Margalef - Ramon Margalef (1919-2004)
@@ -3850,7 +3888,7 @@
 Mattf. - Johannes Mattfeld (1895-1951)
 Matthäs - Ursula Matthäs (1949-…)
 Mattick - Wilhelm Fritz Mattick (1901-1984)
-Mattioli - Pierandrea Mattioli[1] (1501-1577)
+Mattioli - Pierandrea Mattioli (1501-1577)
 Mattos - João Rodrigues de Mattos (es) (1926-)
 Mattox - Karl R. Mattox (1936-…)
 Matuda - Eizi Matuda (1894-1978)
@@ -3954,7 +3992,7 @@
 Moric. - Stefano Moricand (1779-1854)
 Morière - Jules Morière (1817-1888)
 Moris - Giuseppe Giacinto Moris (1796-1869)
-Morison - Robert Morison[1] (1620-1683)
+Morison - Robert Morison (1620-1683)
 Moritzi - Alexandre Moritzi (1807-1850)
 Morley - Thomas Morley (botaniste) (1917-2002)
 Morong - Thomas Morong (1827-1894)
@@ -3992,7 +4030,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4010,7 +4048,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4054,7 +4094,7 @@
 N.P.Balakr. - Nambiyath Puthansurayil Balakrishnan (1935-…)
 N.P.Barker - Nigel P. Barker (fl. 1993)
 N.R.Crouch - Neil Robert Crouch (1967-…)
-N.Robert - Nicolas Robert[1] (1610-1684)
+N.Robert - Nicolas Robert (1610-1684)
 N.Robson - Norman Keith Bonner Robson (1928-…)
 N.Rosén - Nils Rosén von Rosenstein (1706-1773)
 N.T.Burb. - Nancy Tyson Burbidge (1912-1977)
@@ -4102,7 +4142,7 @@
 Niebuhr - Carsten Niebuhr (1733-1815)
 Nied. - Franz Josef Niedenzu (1857-1937)
 Nimmo - Joseph Nimmo (?-1854)
-Nissole - Guillaume Nissole[1] (1647-1735)
+Nissole - Guillaume Nissole (1647-1735)
 Nitzsch - Christian Ludwig Nitzsch (1782-1837)
 Nixon - Kevin Nixon (1953-…)
 Nkongm. - Bernard-Aloys Nkongmeneck (1948-2017)
@@ -4136,7 +4176,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4154,7 +4194,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4192,12 +4234,12 @@
 O.F.Cook - Orator Fuller Cook (1867-1949)
 O.F.Müll. - Otto Friedrich Müller (1730-1784)
 O.Fedtsch. - Olga Fedtchenko (1845-1921)
-O.J.Rudbeck - Olof Rudbeck[1] (1630-1702)
+O.J.Rudbeck - Olof Rudbeck (1630-1702)
 O.K.Mill. - Orson Knapp Miller (1930-2006)
 O.Kuhn - Oskar Kuhn (fl. 1955)
 O.Lang - Otto Friedrich Lang (1817-1847)
 O.Muñiz - Onaney Muñiz (1937-2002)
-O.O.Rudbeck - Olof Rudbeck le Jeune[1] (1660-1740)
+O.O.Rudbeck - Olof Rudbeck le Jeune (1660-1740)
 Ó.Sánchez - Óscar Sánchez Pedraja (1959-…)
 O.Targ.Tozz. - Ottaviano Targioni Tozzetti (1755-1829)
 Oakes - William Oakes (1799-1848)
@@ -4250,7 +4292,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4268,7 +4310,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4337,7 +4381,7 @@
 P.Karst. - Petter Adolf Karsten (1834-1917)
 P.Kumm. - Paul Kummer (1834-1912)
 P.M.Jørg. - Per Magnus Jørgensen (1944-…)
-P.Micheli - Pier Antonio Micheli[1] (1679-1737)
+P.Micheli - Pier Antonio Micheli (1679-1737)
 P.Parm. - Paul Évariste Parmentier (1860-1941)
 P.Preuss - Paul Rudolph Preuss (1861-ca.1922/1925)
 P.R.O.Bally - Peter René Oscar Bally (1895-1980)
@@ -4428,7 +4472,7 @@
 Perleb - Karl Julius Perleb (1794-1845)
 Perp. - Helena Perpenti (1764-1846)
 Perr. - George Samuel Perrottet (1790-1870)
-Perrault - Claude Perrault[1] (1613-1688)
+Perrault - Claude Perrault (1613-1688)
 Perrine - Henry Perrine (1797-1840)
 Perronc. - Edoardo Perroncito (1847-1936)
 Perrot - Émile Perrot (1867-1951)
@@ -4442,7 +4486,7 @@
 Petignat - Herman Petignat (fl. 1993)
 Petit - Antoine Petit (botaniste) (?-1843)
 Petitm. - Marcel Georges Charles Petitmengin (1881-1908)
-Petiver - James Petiver[1] (1658-1718)
+Petiver - James Petiver (1658-1718)
 Petrie - Donald Petrie (botaniste) (1846-1925)
 Petrovič - Sava Petrovič (1839-1889)
 Pett. - Bror Johan Pettersson (1895-?)
@@ -4479,7 +4523,7 @@
 Piré - Louis Piré (1827-1887)
 Pires - João Murça Pires (1916-1994)
 Pirotta - Pietro Romualdo Pirotta (1853-1936)
-Piso - Willem Piso[1] (c.1611-1678)
+Piso - Willem Piso (c.1611-1678)
 Pit. - Charles-Joseph Marie Pitard-Briau (1873-1927)
 Pittier - Henri Pittier (1857-1950)
 Planch. - Jules Émile Planchon (1823-1888)
@@ -4487,8 +4531,8 @@
 Plée - Auguste Plée (1786-1825)
 Plenck - Joseph Jacob von Plenck (1738-1807)
 Plowes - Darrel Charles Herbert Plowes (1925-…)
-Pluk. - Leonard Plukenet[1] (1642-1706)
-Plum. - Charles Plumier[1] (1646-1704)
+Pluk. - Leonard Plukenet (1642-1706)
+Plum. - Charles Plumier (1646-1704)
 Poche - Franz Poche (1879-1945)
 Pocock - Mary Pocock (1886-1977)
 Pocta - Filip Počta (1859-1924)
@@ -4565,7 +4609,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4583,7 +4627,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -4629,7 +4675,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4647,7 +4693,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4768,10 +4816,10 @@
 Raunk. - Christen Christiansen Raunkiær (1860-1938)
 Rauschert - Stephan Rauschert (1931-1986)
 Rauwenh. - Nicolas Willem Pieter Rauwenhoff (1826-1909)
-Rauwolff - Leonhard Rauwolf[1] (1535-1596)
+Rauwolff - Leonhard Rauwolf (1535-1596)
 Ravenel - Henry William Ravenel (1814-1887)
 Ravenna - Pierfelice Ravenna (1938-…)
-Ray - John Ray[1] (1627-1705)
+Ray - John Ray (1627-1705)
 Raym.-Hamet - Raymond-Hamet (1890-1972)
 Raymond - Louis-Florent-Marcel Raymond (1915-1972)
 Raynaud - Christian Raynaud (1939-1993)
@@ -4781,7 +4829,7 @@
 Rebmann - Norbert Rebmann (1948-…)
 Rech. - Karl Rechinger (1867-1952)
 Rech.f. - Karl Heinz Rechinger (1906-1998)
-Redi - Francesco Redi[1] (1626-1698)
+Redi - Francesco Redi (1626-1698)
 Redouté - Pierre-Joseph Redouté (1759-1840)
 Rees - Abraham Rees (1743-1825)
 Reeves - Robert Gatlin Reeves (1898-?)
@@ -4795,7 +4843,7 @@
 Renauld - Ferdinand Renauld (1837-1910)
 Renault - Bernard Renault (1836-1904)
 Rendle - Alfred Barton Rendle (1865-1938)
-Reneaulme - Paul Reneaulme[1] (1560-1624)
+Reneaulme - Paul Reneaulme (1560-1624)
 Renvoize - Stephen Andrew Renvoize (1944-…)
 Req. - Esprit Requien (1788-1851)
 Resv.-Holms. - Hanna Resvoll-Holmsen (1873-1943)
@@ -4808,9 +4856,9 @@
 Reyn. - Jean-Louis-Antoine Reynier (1762-1824)
 Reynolds - Gilbert Westacott Reynolds (1895-1967)
 Reznicek - Anton Albert Reznicek (1950-…)
-Rheede - Hendrik van Rheede[1] (1637-1691)
+Rheede - Hendrik van Rheede (1637-1691)
 Rich. - Louis Claude Richard (1754-1821)
-Rich.Bell. - Pierre Richer de Belleval[1] (1564-1632)
+Rich.Bell. - Pierre Richer de Belleval (1564-1632)
 Richardson - John Richardson (naturaliste) (1787-1865)
 Richon - Charles Édouard Richon (1820-1893)
 Ricken - Adalbert Ricken (1851-1921)
@@ -4822,7 +4870,7 @@
 Risse - Horst Risse (fl. 1985)
 Risso - Antoine Risso (1777-1845)
 Ritgen - Ferdinand von Ritgen (1787-1867)
-Riv. - Augustus Quirinus Rivinus[1] (1652-1723)
+Riv. - Augustus Quirinus Rivinus (1652-1723)
 Rivas Mart. - Salvador Rivas Martínez (es) (1935-…)
 Rivière - Auguste Rivière (1821-1877)
 Rizzini - Carlos Toledo Rizzini (1921-…)
@@ -4830,7 +4878,7 @@
 Robatsch - Karl Robatsch (1929-2001)
 Robbertse - Petrus Johannes Robbertse (1932-…)
 Robbr. - Elmar Robbrecht (1946-…)
-Roberg - Lars Roberg[1] (1664-1742)
+Roberg - Lars Roberg (1664-1742)
 Roberge - Michael Robert Roberge (?-1864)
 Robertson - David Robertson (naturaliste) (1806-1896)
 Roberty - Guy Roberty (1907-1971)
@@ -4854,7 +4902,7 @@
 Rollins - Reed Clark Rollins (1911-1998)
 Romagn. - Henri Romagnesi (1912-1999)
 Romans - Bernard Romans (v. 1720-1784)
-Rondelet - Guillaume Rondelet[1] (1507-1566)
+Rondelet - Guillaume Rondelet (1507-1566)
 Ronniger - Karl Ronniger (1871-1954)
 Ronse Decr. - Louis-Philippe Ronse Decraene (1962-…)
 Röösli - Walter Röösli (fl. 1994)
@@ -4894,10 +4942,10 @@
 Rudge - Edward Rudge (1763-1846)
 Rudolphi - Karl Asmund Rudolphi (1771-1832)
 Ruiz - Hipólito Ruiz López (1754-1815)
-Rumph. - Georg Everhard Rumphius[1] (1628-1702)
+Rumph. - Georg Everhard Rumphius (1628-1702)
 Rupp - Herman Montague Rucker Rupp (1872-1956)
 Rüppell - Eduard Rüppell (1794-1884)
-Ruppius - Heinrich Bernhard Rupp[1] (1688-1719)
+Ruppius - Heinrich Bernhard Rupp (1688-1719)
 Rupr. - Franz Josef Ruprecht (1814-1870)
 Rusby - Henry Hurd Rusby (1855-1940)
 Ruschenb. - William Samuel Waithman Ruschenberger (fl. 1831)
@@ -4915,7 +4963,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4933,7 +4981,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -4966,7 +5016,7 @@
 S.C.Huang - Shu Chung Huang (1921-…)
 S.Carter - Susan Carter Holmes (1933-…)
 S.D.Sundb. - Scott D. Sundberg (1954-2004)
-S.Dale - Samuel Dale (botaniste)[1] (1659-1739)
+S.Dale - Samuel Dale (botaniste) (1659-1739)
 S.F.Blake - Sidney Fay Blake (1892-1959)
 S.G.Gmel. - Samuel Gottlieb Gmelin (1744-1774)
 S.G.M.Carr - Stella Grace Maisie Carr (1912-1988)
@@ -5146,7 +5196,7 @@
 Sharman - Percy John Sharman (fl. 1916)
 Shaw - George Russell Shaw (en) (1848-1937)
 Shear - Cornelius Lott Shear (1865-1956)
-Sherard - William Sherard[1] (1659-1728)
+Sherard - William Sherard (1659-1728)
 Sherff - Earl Edward Sherff (1886-1966)
 Shibata - Keita Shibata (1877-1949)
 Shinners - Lloyd Herbert Shinners (1918-1971)
@@ -5157,7 +5207,7 @@
 Sibth. - John Sibthorp (1758-1796)
 Sieber - Franz Wilhelm Sieber (1789-1844)
 Siebold - Philipp Franz von Siebold (1796-1866)
-Siegesb. - Johann Georg Siegesbeck[1] (1686-1755)
+Siegesb. - Johann Georg Siegesbeck (1686-1755)
 Siesm. - Franz Heinrich Siesmayer (1817-1900)
 Siev. - Johann Sievers (1762-1795)
 Silva Manso - Patricio Antonio Luiz da Silva Manso (1788-1848)
@@ -5177,7 +5227,7 @@
 Skutch - Alexander Frank Skutch (1904-2004)
 Skvortsov - Boris Vassilievich Skvortsov (1896-1980)
 Sleumer - Hermann Otto Sleumer (1906-1993)
-Sloane - Hans Sloane[1] (1660-1753)
+Sloane - Hans Sloane (1660-1753)
 Sm. - James Edward Smith (1759-1828)
 Small - John Kunkel Small (1869-1938)
 Smeathman - Henry Smeathman (1742-1786)
@@ -5252,7 +5302,7 @@
 Steenstr. - Japetus Steenstrup (1813-1897)
 Stefan. - Giuseppe Stefanini (paléontologue) (it) (1882-1938)
 Stein - Berthold Stein (1847-1899)
-Steller - Georg Wilhelm Steller[1] (1709-1746)
+Steller - Georg Wilhelm Steller (1709-1746)
 Štěpánek - Jan Štěpánek (1955-…)
 Stephens - Edith Layard Stephens (1884-1966)
 Sternb. - Kaspar Maria von Sternberg (1761-1838)
@@ -5310,7 +5360,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5328,7 +5378,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5410,7 +5462,7 @@
 Tappan - Helen Niña Tappan Loeblich (1917-2004)
 Tardieu - Marie-Laure Tardieu-Blot (1902-1998)
 Targ.Tozz. - Giovanni Targioni Tozzetti (1712-1783)
-Tärnström - Christopher Tärnström[1] (1703-1746)
+Tärnström - Christopher Tärnström (1703-1746)
 Taschenb. - Ernst Ludwig Taschenberg (en) (1818-1898)
 Tate - Ralph Tate (en) (1840-1901)
 Taton - Auguste Simon Taton (1914-1989)
@@ -5419,7 +5471,7 @@
 Taylor - Thomas Taylor (botaniste) (en) (1786-1848)
 Tchich. - Piotr Tchikhatchov (1812-1890)
 Tebbitt - Mark C. Tebbitt (fl. 2000)
-Teichm. - Hermann Friedrich Teichmeyer[1] (1685-1746)
+Teichm. - Hermann Friedrich Teichmeyer (1685-1746)
 Teijsm. - Johannes Elias Teijsmann (1809-1882)
 Telfair - Charles Telfair (1777-1833)
 Telford - Sam Rountree Telford Jr. (1932-…)
@@ -5438,7 +5490,7 @@
 Thaxt. - Roland Thaxter (1858-1932)
 Thays - Charles Thays (1849-1934)
 Thell. - Albert Thellung (1881-1928)
-Theophr. - Théophraste[1] (VIe – IIIe siècles av. J.-C.)
+Theophr. - Théophraste (VIe – IIIe siècles av. J.-C.)
 Thib.Chanv. - Jean-Baptiste Thibault de Chanvalon (1725-1785)
 Thiéry Mén. - Nicolas Joseph Thiéry de Ménonville (1739-1780)
 Thin - Nguyen Nghia Thin (fl. 1983)
@@ -5476,12 +5528,12 @@
 Tonduz - Adolphe Tonduz (1862-1921)
 Topsent - Émile Topsent (1862-1951)
 Torell - Otto Martin Torell (1828-1900)
-Torén - Olof Torén[1] (1718-1753)
+Torén - Olof Torén (1718-1753)
 Torr. - John Torrey (1796-1873)
 Torssander - Axel Gustav Abraham Torssander (1843-1905)
-Tourn. - Joseph Pitton de Tournefort[1] (1656-1708)
+Tourn. - Joseph Pitton de Tournefort (1656-1708)
 Trab. - Louis Charles Trabut (1853-1929)
-Trad. - John Tradescant le Jeune[1] (1608-1662)
+Trad. - John Tradescant le Jeune (1608-1662)
 Traill - George William Traill (1836-1897)
 Tratt. - Leopold Trattinnick (1764-1849)
 Traub - Hamilton Paul Traub (1890-1983)
@@ -5532,7 +5584,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5550,7 +5602,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -5600,7 +5654,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5618,7 +5672,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5652,7 +5708,7 @@
 V.A.Wager - Vincent Athelstan Wager (1904-?)
 V.Allorge - Valentine Allorge (1888-1977)
 V.B.Stewart - Vern Bonham Stewart (1888-1918)
-V.Cordus - Valerius Cordus[1] (1514-1544)
+V.Cordus - Valerius Cordus (1514-1544)
 V.D.Roth - Vincent Daniel Roth (1924-1997)
 V.E.Grant - Verne Edwin Grant (1917-2007)
 V.I.Krecz. - Vitalii Ivanovich Kreczetowicz (es) (1901-1942)
@@ -5666,7 +5722,7 @@
 Vachell - Eleanor Vachell (1879-1948)
 Vaga - August Vaga (1893-1960)
 Vahl - Martin Vahl (1749-1804)
-Vaill. - Sébastien Vaillant[1] (1669-1722)
+Vaill. - Sébastien Vaillant (1669-1722)
 Valerio - Juvenal Valerio Rodríguez (1900-1971)
 Valeton - Theodoric Valeton (1855-1929)
 Vallot - Joseph Vallot (1854-1925)
@@ -5676,7 +5732,7 @@
 Van Heurck - Henri Ferdinand Van Heurck (1838-1909)
 Van Houtte - Louis Van Houtte (1810-1876)
 van Jaarsv. - Ernst Jacobus van Jaarsveld (1953-…)
-Van Sterbeeck - Johannes Franciscus Van Sterbeeck[1] (1630-1693)
+Van Sterbeeck - Johannes Franciscus Van Sterbeeck (1630-1693)
 Vand. - Domenico Agostino Vandelli (1735-1816)
 Vanden Berghen - Constant Vanden Berghen (1914-2004)
 Vanhöffen - Ernst Vanhöffen (1858-1918)
@@ -5744,7 +5800,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5762,7 +5818,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -5962,7 +6020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5980,7 +6038,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -6023,7 +6083,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6041,7 +6101,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -6100,7 +6162,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6118,7 +6180,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -6181,7 +6245,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_des_abr%C3%A9viations_d%27auteur_en_taxinomie_v%C3%A9g%C3%A9tale</t>
+          <t>Liste_des_abréviations_d'auteur_en_taxinomie_végétale</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6199,7 +6263,9 @@
           <t>#</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
